--- a/biology/Médecine/Nerf_digital_plantaire_commun_du_nerf_plantaire_médial/Nerf_digital_plantaire_commun_du_nerf_plantaire_médial.xlsx
+++ b/biology/Médecine/Nerf_digital_plantaire_commun_du_nerf_plantaire_médial/Nerf_digital_plantaire_commun_du_nerf_plantaire_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Les nerfs digitaux plantaires communs du nerf plantaire médial sont trois nerfs mixtes du pied.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois nerfs digitaux communs sont les branches terminales du nerf plantaire médial.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois nerfs digitaux communs passent entre les divisions de l'aponévrose plantaire, et chacun se divise en deux nerfs digitaux plantaires propres.
 Ceux du premier nerf digital commun innervent les côtés adjacents du gros et du deuxième orteil.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_commun_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On observera que ces nerfs digitaux sont semblables dans leur distribution à ceux du nerf médian de la main.
 </t>
